--- a/doc/sprint3_burndown.xlsx
+++ b/doc/sprint3_burndown.xlsx
@@ -289,34 +289,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>22.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -443,34 +479,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>22.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0</c:v>
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -485,11 +557,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="452418144"/>
-        <c:axId val="452278048"/>
+        <c:axId val="1164912224"/>
+        <c:axId val="1164922144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="452418144"/>
+        <c:axId val="1164912224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42655.0"/>
@@ -604,14 +676,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452278048"/>
+        <c:crossAx val="1164922144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="452278048"/>
+        <c:axId val="1164922144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -729,7 +801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452418144"/>
+        <c:crossAx val="1164912224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1370,16 +1442,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1666,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1688,10 +1760,10 @@
         <v>42634</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1699,10 +1771,10 @@
         <v>42635</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1710,10 +1782,10 @@
         <v>42636</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1721,10 +1793,10 @@
         <v>42637</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1732,10 +1804,10 @@
         <v>42638</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1743,10 +1815,10 @@
         <v>42639</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1754,10 +1826,10 @@
         <v>42640</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1765,10 +1837,10 @@
         <v>42641</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1776,10 +1848,10 @@
         <v>42642</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1787,70 +1859,142 @@
         <v>42643</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42644</v>
       </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42645</v>
       </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42646</v>
       </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42647</v>
       </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42648</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42649</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42650</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42651</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42652</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42653</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42654</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42655</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/doc/sprint3_burndown.xlsx
+++ b/doc/sprint3_burndown.xlsx
@@ -319,7 +319,7 @@
                   <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>13.0</c:v>
@@ -343,16 +343,16 @@
                   <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -527,7 +527,7 @@
                   <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>9.0</c:v>
@@ -536,10 +536,10 @@
                   <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4.0</c:v>
@@ -557,11 +557,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1164912224"/>
-        <c:axId val="1164922144"/>
+        <c:axId val="1961620976"/>
+        <c:axId val="1961625632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1164912224"/>
+        <c:axId val="1961620976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42655.0"/>
@@ -676,14 +676,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1164922144"/>
+        <c:crossAx val="1961625632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1164922144"/>
+        <c:axId val="1961625632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1164912224"/>
+        <c:crossAx val="1961620976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1739,7 +1739,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1870,7 +1870,7 @@
         <v>42644</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>16</v>
@@ -1939,7 +1939,7 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1958,7 +1958,7 @@
         <v>42652</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -1969,10 +1969,10 @@
         <v>42653</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1983,7 +1983,7 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1991,7 +1991,7 @@
         <v>42655</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>4</v>

--- a/doc/sprint3_burndown.xlsx
+++ b/doc/sprint3_burndown.xlsx
@@ -530,10 +530,10 @@
                   <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4.0</c:v>
@@ -557,11 +557,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1961620976"/>
-        <c:axId val="1961625632"/>
+        <c:axId val="1434376896"/>
+        <c:axId val="1468498416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1961620976"/>
+        <c:axId val="1434376896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42655.0"/>
@@ -676,14 +676,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1961625632"/>
+        <c:crossAx val="1468498416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1961625632"/>
+        <c:axId val="1468498416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1961620976"/>
+        <c:crossAx val="1434376896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1738,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1950,7 +1950,7 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1961,7 +1961,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">

--- a/doc/sprint3_burndown.xlsx
+++ b/doc/sprint3_burndown.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -557,11 +557,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1434376896"/>
-        <c:axId val="1468498416"/>
+        <c:axId val="-1893557280"/>
+        <c:axId val="-1893547040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1434376896"/>
+        <c:axId val="-1893557280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42655.0"/>
@@ -676,14 +676,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1468498416"/>
+        <c:crossAx val="-1893547040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1468498416"/>
+        <c:axId val="-1893547040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1434376896"/>
+        <c:crossAx val="-1893557280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/doc/sprint3_burndown.xlsx
+++ b/doc/sprint3_burndown.xlsx
@@ -167,7 +167,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -193,19 +193,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -357,7 +345,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -383,19 +371,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -547,7 +523,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -557,11 +533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1893557280"/>
-        <c:axId val="-1893547040"/>
+        <c:axId val="1109258816"/>
+        <c:axId val="1109266880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1893557280"/>
+        <c:axId val="1109258816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42655.0"/>
@@ -676,14 +652,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1893547040"/>
+        <c:crossAx val="1109266880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1893547040"/>
+        <c:axId val="1109266880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +777,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1893557280"/>
+        <c:crossAx val="1109258816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1739,7 +1715,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
